--- a/Data/T1_EMA_M.xlsx
+++ b/Data/T1_EMA_M.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,600 +470,1414 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dividends</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Stock Splits</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EMA10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EMA22</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EMA50</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EMA100</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>EMA250</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EMA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Capital Gains</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Dividends</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Stock Splits</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EMA10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>EMA22</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>EMA50</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>EMA100</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EMA250</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>EMA</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>EMA_diff</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Capital Gains</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9879.HK</t>
+          <t>9997.HK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.190000057220459</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D2" t="n">
-        <v>6.25</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="E2" t="n">
-        <v>6.139999866485596</v>
+        <v>8.850000381469727</v>
       </c>
       <c r="F2" t="n">
-        <v>6.230000019073486</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="G2" t="n">
-        <v>6.230000019073486</v>
+        <v>1498500</v>
       </c>
       <c r="H2" t="n">
-        <v>464000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.870573358870621</v>
       </c>
       <c r="K2" t="n">
-        <v>6.17736073237808</v>
+        <v>8.778924759408007</v>
       </c>
       <c r="L2" t="n">
-        <v>6.151550506535544</v>
+        <v>8.48553274598347</v>
       </c>
       <c r="M2" t="n">
-        <v>6.030344386658703</v>
+        <v>8.017078960291505</v>
       </c>
       <c r="N2" t="n">
-        <v>5.896847296011751</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5.848438438627356</v>
+        <v>7.150713882449233</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.09350447878877628</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3969.HK</t>
+          <t>6638.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.529999971389771</v>
+        <v>1.919999957084656</v>
       </c>
       <c r="D3" t="n">
-        <v>3.549999952316284</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="E3" t="n">
-        <v>3.509999990463257</v>
+        <v>1.919999957084656</v>
       </c>
       <c r="F3" t="n">
-        <v>3.519999980926514</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="G3" t="n">
-        <v>3.519999980926514</v>
+        <v>406500</v>
       </c>
       <c r="H3" t="n">
-        <v>5859000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.906992765884295</v>
       </c>
       <c r="K3" t="n">
-        <v>3.468383527962282</v>
+        <v>1.906271399711835</v>
       </c>
       <c r="L3" t="n">
-        <v>3.453674499642196</v>
+        <v>1.901533798647015</v>
       </c>
       <c r="M3" t="n">
-        <v>3.435157239247174</v>
+        <v>1.814540182489667</v>
       </c>
       <c r="N3" t="n">
-        <v>3.389074289313622</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.288352876253183</v>
+        <v>1.506533565148767</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.02643641288288675</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1982.HK</t>
+          <t>3983.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8799999952316284</v>
+        <v>2.390000104904175</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8899999856948853</v>
+        <v>2.390000104904175</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8799999952316284</v>
+        <v>2.349999904632568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8899999856948853</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8899999856948853</v>
+        <v>934000</v>
       </c>
       <c r="H4" t="n">
-        <v>948000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.407702369826689</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8878776615311914</v>
+        <v>2.383219410118168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8829338019044489</v>
+        <v>2.292093454652148</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8618734001003207</v>
+        <v>2.176111058831895</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8401764015131765</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.7958003057697763</v>
+        <v>2.038320714817063</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.01590042000600496</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1052.HK</t>
+          <t>3969.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.449999809265137</v>
+        <v>3.519999980926514</v>
       </c>
       <c r="D5" t="n">
-        <v>4.449999809265137</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="E5" t="n">
-        <v>4.369999885559082</v>
+        <v>3.490000009536743</v>
       </c>
       <c r="F5" t="n">
-        <v>4.409999847412109</v>
+        <v>3.509999990463257</v>
       </c>
       <c r="G5" t="n">
-        <v>4.409999847412109</v>
+        <v>4609000</v>
       </c>
       <c r="H5" t="n">
-        <v>3498374</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.475950157507913</v>
       </c>
       <c r="K5" t="n">
-        <v>4.340619897899655</v>
+        <v>3.458572368409149</v>
       </c>
       <c r="L5" t="n">
-        <v>4.258571614949973</v>
+        <v>3.438091521264757</v>
       </c>
       <c r="M5" t="n">
-        <v>4.094255964532351</v>
+        <v>3.391117945532542</v>
       </c>
       <c r="N5" t="n">
-        <v>3.936442652146179</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.832823626773321</v>
+        <v>3.274311879527827</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.1347257485844922</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1044.HK</t>
+          <t>2518.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.45999908447266</v>
+        <v>56.75</v>
       </c>
       <c r="D6" t="n">
-        <v>25.45999908447266</v>
+        <v>56.75</v>
       </c>
       <c r="E6" t="n">
-        <v>25.02000045776367</v>
+        <v>56.70000076293945</v>
       </c>
       <c r="F6" t="n">
-        <v>25.26000022888184</v>
+        <v>56.70000076293945</v>
       </c>
       <c r="G6" t="n">
-        <v>25.26000022888184</v>
+        <v>2800</v>
       </c>
       <c r="H6" t="n">
-        <v>2384205</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>56.57687074205896</v>
       </c>
       <c r="K6" t="n">
-        <v>25.18729640436596</v>
+        <v>56.09602227199932</v>
       </c>
       <c r="L6" t="n">
-        <v>24.90904733045289</v>
+        <v>55.0888445580372</v>
       </c>
       <c r="M6" t="n">
-        <v>24.31669174690989</v>
+        <v>54.24582337457462</v>
       </c>
       <c r="N6" t="n">
-        <v>23.6210752422005</v>
-      </c>
-      <c r="O6" t="n">
-        <v>23.48915466092073</v>
+        <v>53.81482882413975</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.5220737207218183</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0303.HK</t>
+          <t>2356.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.65000152587891</v>
+        <v>9.680000305175781</v>
       </c>
       <c r="D7" t="n">
-        <v>64.84999847412109</v>
+        <v>9.829999923706055</v>
       </c>
       <c r="E7" t="n">
-        <v>63.04999923706055</v>
+        <v>9.640000343322754</v>
       </c>
       <c r="F7" t="n">
-        <v>64.80000305175781</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="G7" t="n">
-        <v>64.80000305175781</v>
+        <v>590840</v>
       </c>
       <c r="H7" t="n">
-        <v>637751</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.857316816180372</v>
       </c>
       <c r="K7" t="n">
-        <v>63.15789788024058</v>
+        <v>9.842548695896232</v>
       </c>
       <c r="L7" t="n">
-        <v>62.47378293455122</v>
+        <v>9.575836111671888</v>
       </c>
       <c r="M7" t="n">
-        <v>60.97226257738416</v>
+        <v>9.11179735256091</v>
       </c>
       <c r="N7" t="n">
-        <v>58.88670093196573</v>
-      </c>
-      <c r="O7" t="n">
-        <v>55.88324866980973</v>
+        <v>8.067970563745579</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.423732316091616</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0215.HK</t>
+          <t>2161.HK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.110000014305115</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="D8" t="n">
-        <v>1.110000014305115</v>
+        <v>3.029999971389771</v>
       </c>
       <c r="E8" t="n">
-        <v>1.100000023841858</v>
+        <v>2.900000095367432</v>
       </c>
       <c r="F8" t="n">
-        <v>1.110000014305115</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.110000014305115</v>
+        <v>798000</v>
       </c>
       <c r="H8" t="n">
-        <v>1566100</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.02647342785663</v>
       </c>
       <c r="K8" t="n">
-        <v>1.102875735972858</v>
+        <v>3.009323817840575</v>
       </c>
       <c r="L8" t="n">
-        <v>1.099638341911477</v>
+        <v>2.946248359384498</v>
       </c>
       <c r="M8" t="n">
-        <v>1.088028147199133</v>
+        <v>2.744183590446095</v>
       </c>
       <c r="N8" t="n">
-        <v>1.05995275335264</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.025175650445454</v>
+        <v>2.197074704150139</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.01430766087340577</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0071.HK</t>
+          <t>1982.HK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.05000019073486</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="D9" t="n">
-        <v>10.18000030517578</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="E9" t="n">
-        <v>10.01000022888184</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="F9" t="n">
-        <v>10.14999961853027</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="G9" t="n">
-        <v>10.14999961853027</v>
+        <v>1406000</v>
       </c>
       <c r="H9" t="n">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.8882633786842784</v>
       </c>
       <c r="K9" t="n">
-        <v>10.05788740076508</v>
+        <v>0.8834644405546395</v>
       </c>
       <c r="L9" t="n">
-        <v>10.01278921347365</v>
+        <v>0.8614011034802813</v>
       </c>
       <c r="M9" t="n">
-        <v>9.918375415669312</v>
+        <v>0.8345480382438762</v>
       </c>
       <c r="N9" t="n">
-        <v>9.751317522267385</v>
-      </c>
-      <c r="O9" t="n">
-        <v>9.615095035347814</v>
+        <v>0.7672768374135769</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0.1021899594992319</v>
-      </c>
-      <c r="R9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1382.HK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.480000019073486</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.480000019073486</v>
+      </c>
+      <c r="G10" t="n">
+        <v>137000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.516841978296433</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.506603576672226</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.464397334562149</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.418814390192885</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.401151338598959</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1199.HK</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.659999847412109</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.579999923706055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.659999847412109</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2860000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.613229477032012</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.561718968737162</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.434864302116781</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.17968198181906</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.798230548500465</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1052.HK</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.420000076293945</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.420000076293945</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.389999866485596</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.420000076293945</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1510000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.3550525565778</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.272394154132319</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.09949660088775</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.913753810462528</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.728534639265807</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1044.HK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.29999923706055</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.97999954223633</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>699500</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>25.08491352484212</v>
+      </c>
+      <c r="K13" t="n">
+        <v>24.66427979753835</v>
+      </c>
+      <c r="L13" t="n">
+        <v>23.86799144216567</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22.9562265354702</v>
+      </c>
+      <c r="N13" t="n">
+        <v>22.29501335391393</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0874.HK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>18.30999946594238</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.30999946594238</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18.1200008392334</v>
+      </c>
+      <c r="G14" t="n">
+        <v>598000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18.39390150079414</v>
+      </c>
+      <c r="K14" t="n">
+        <v>18.34145769918405</v>
+      </c>
+      <c r="L14" t="n">
+        <v>18.05343268905047</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.68103083579954</v>
+      </c>
+      <c r="N14" t="n">
+        <v>17.5640956664184</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0807.HK</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.139999985694885</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.139999985694885</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.139999985694885</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.139999985694885</v>
+      </c>
+      <c r="G15" t="n">
+        <v>379000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.140355425511031</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.137211516222028</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.110717968272912</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.063071415786961</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.008430051819083</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0737.HK</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.870000004768372</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.870000004768372</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.860000014305115</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.860000014305115</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22500</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.839644048357063</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.821923858934155</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.794625659954483</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.761091127474636</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.692522191798185</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0551.HK</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12.8100004196167</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.96000003814697</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.8100004196167</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12.89000034332275</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1651960</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.05493733265996</v>
+      </c>
+      <c r="K17" t="n">
+        <v>13.01841375631446</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12.70298204340057</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.380342872017</v>
+      </c>
+      <c r="N17" t="n">
+        <v>12.14121170308665</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0548.HK</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.159999847412109</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="G18" t="n">
+        <v>635912</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7.20631367387927</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7.189594389609604</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.077946293377201</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6.957718227032993</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.853995498661064</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0440.HK</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>33.65999984741211</v>
+      </c>
+      <c r="D19" t="n">
+        <v>34.15999984741211</v>
+      </c>
+      <c r="E19" t="n">
+        <v>33.65999984741211</v>
+      </c>
+      <c r="F19" t="n">
+        <v>34.13999938964844</v>
+      </c>
+      <c r="G19" t="n">
+        <v>163427</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>33.90692100288884</v>
+      </c>
+      <c r="K19" t="n">
+        <v>33.45686343533115</v>
+      </c>
+      <c r="L19" t="n">
+        <v>32.00012100777609</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30.31752249897434</v>
+      </c>
+      <c r="N19" t="n">
+        <v>27.04744638821187</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0315.HK</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.739999771118164</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.699999809265137</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.699999809265137</v>
+      </c>
+      <c r="G20" t="n">
+        <v>294000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.73608187378107</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.723126566446227</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.669515532571837</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.552855951338161</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.279120454108712</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0303.HK</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>64.84999847412109</v>
+      </c>
+      <c r="D21" t="n">
+        <v>65</v>
+      </c>
+      <c r="E21" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64.30000305175781</v>
+      </c>
+      <c r="G21" t="n">
+        <v>133800</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>63.3653698874264</v>
+      </c>
+      <c r="K21" t="n">
+        <v>62.59364661465533</v>
+      </c>
+      <c r="L21" t="n">
+        <v>60.64164471812096</v>
+      </c>
+      <c r="M21" t="n">
+        <v>57.75231717052403</v>
+      </c>
+      <c r="N21" t="n">
+        <v>53.1695835213547</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0215.HK</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.110000014305115</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.110000014305115</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.110000014305115</v>
+      </c>
+      <c r="G22" t="n">
+        <v>638000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.102778761618105</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.094069193175763</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.074666202897619</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.036340278060819</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9761103172669405</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0088.HK</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.240000009536743</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.240000009536743</v>
+      </c>
+      <c r="G23" t="n">
+        <v>191000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.269452229933593</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.268661234150805</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.239846925400379</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.164354095090975</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.04057170940333</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0071.HK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10.14999961853027</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.14999961853027</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.05000019073486</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.05000019073486</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10.05645327640594</v>
+      </c>
+      <c r="K24" t="n">
+        <v>10.01570650400733</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9.909340280467818</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.692264209137786</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.392869906727057</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>0053.HK</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>77.40000152587891</v>
-      </c>
-      <c r="D10" t="n">
-        <v>77.59999847412109</v>
-      </c>
-      <c r="E10" t="n">
-        <v>76.59999847412109</v>
-      </c>
-      <c r="F10" t="n">
-        <v>76.75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>76.75</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11000</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>76.17965958089862</v>
-      </c>
-      <c r="L10" t="n">
-        <v>75.35368130064994</v>
-      </c>
-      <c r="M10" t="n">
-        <v>73.36638872342873</v>
-      </c>
-      <c r="N10" t="n">
-        <v>71.43813182415089</v>
-      </c>
-      <c r="O10" t="n">
-        <v>70.56717601532016</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.580509252249243</v>
-      </c>
-      <c r="R10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="D25" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>76.90000152587891</v>
+      </c>
+      <c r="F25" t="n">
+        <v>77.09999847412109</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>76.34699392449231</v>
+      </c>
+      <c r="K25" t="n">
+        <v>75.50548113568144</v>
+      </c>
+      <c r="L25" t="n">
+        <v>73.49657840206704</v>
+      </c>
+      <c r="M25" t="n">
+        <v>71.33920357799113</v>
+      </c>
+      <c r="N25" t="n">
+        <v>69.30757215934165</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0032.HK</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>8.550000190734863</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.539999961853027</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.539999961853027</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.485206824029023</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.415335812514323</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8.26752670721126</v>
+      </c>
+      <c r="M26" t="n">
+        <v>8.021969416440717</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.793561256966716</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/T1_EMA_M.xlsx
+++ b/Data/T1_EMA_M.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,15 +523,10 @@
           <t>Capital Gains</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -539,19 +534,19 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>8.850000381469727</v>
+      </c>
+      <c r="D2" t="n">
         <v>8.869999885559082</v>
       </c>
-      <c r="D2" t="n">
-        <v>8.880000114440918</v>
-      </c>
       <c r="E2" t="n">
+        <v>8.819999694824219</v>
+      </c>
+      <c r="F2" t="n">
         <v>8.850000381469727</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.859999656677246</v>
-      </c>
       <c r="G2" t="n">
-        <v>1498500</v>
+        <v>3906000</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -560,19 +555,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.870573358870621</v>
+        <v>8.868890722535824</v>
       </c>
       <c r="K2" t="n">
-        <v>8.778924759408007</v>
+        <v>8.800325126872467</v>
       </c>
       <c r="L2" t="n">
-        <v>8.48553274598347</v>
+        <v>8.528939110243561</v>
       </c>
       <c r="M2" t="n">
-        <v>8.017078960291505</v>
+        <v>8.066731536359621</v>
       </c>
       <c r="N2" t="n">
-        <v>7.150713882449233</v>
+        <v>7.191482597767822</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -581,11 +576,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -593,19 +587,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.919999957084656</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="D3" t="n">
         <v>1.940000057220459</v>
       </c>
       <c r="E3" t="n">
-        <v>1.919999957084656</v>
+        <v>1.929999947547913</v>
       </c>
       <c r="F3" t="n">
         <v>1.940000057220459</v>
       </c>
       <c r="G3" t="n">
-        <v>406500</v>
+        <v>25500</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -614,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.906992765884295</v>
+        <v>1.92463869072912</v>
       </c>
       <c r="K3" t="n">
-        <v>1.906271399711835</v>
+        <v>1.91624382280379</v>
       </c>
       <c r="L3" t="n">
-        <v>1.901533798647015</v>
+        <v>1.906912730380787</v>
       </c>
       <c r="M3" t="n">
-        <v>1.814540182489667</v>
+        <v>1.822402249712002</v>
       </c>
       <c r="N3" t="n">
-        <v>1.506533565148767</v>
+        <v>1.517045713544859</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -635,11 +629,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -647,19 +640,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.390000104904175</v>
+        <v>2.329999923706055</v>
       </c>
       <c r="D4" t="n">
-        <v>2.390000104904175</v>
+        <v>2.339999914169312</v>
       </c>
       <c r="E4" t="n">
-        <v>2.349999904632568</v>
+        <v>2.309999942779541</v>
       </c>
       <c r="F4" t="n">
-        <v>2.369999885559082</v>
+        <v>2.319999933242798</v>
       </c>
       <c r="G4" t="n">
-        <v>934000</v>
+        <v>2606000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -668,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.407702369826689</v>
+        <v>2.384989098922832</v>
       </c>
       <c r="K4" t="n">
-        <v>2.383219410118168</v>
+        <v>2.377825930488091</v>
       </c>
       <c r="L4" t="n">
-        <v>2.292093454652148</v>
+        <v>2.300015230564516</v>
       </c>
       <c r="M4" t="n">
-        <v>2.176111058831895</v>
+        <v>2.186979538497154</v>
       </c>
       <c r="N4" t="n">
-        <v>2.038320714817063</v>
+        <v>2.046022513962216</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -689,11 +682,10 @@
         <v>1</v>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -701,19 +693,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.519999980926514</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="D5" t="n">
-        <v>3.529999971389771</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.490000009536743</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="F5" t="n">
-        <v>3.509999990463257</v>
+        <v>3.470000028610229</v>
       </c>
       <c r="G5" t="n">
-        <v>4609000</v>
+        <v>3732000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -722,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.475950157507913</v>
+        <v>3.483229263461838</v>
       </c>
       <c r="K5" t="n">
-        <v>3.458572368409149</v>
+        <v>3.467119820551483</v>
       </c>
       <c r="L5" t="n">
-        <v>3.438091521264757</v>
+        <v>3.43234870840088</v>
       </c>
       <c r="M5" t="n">
-        <v>3.391117945532542</v>
+        <v>3.350752305971532</v>
       </c>
       <c r="N5" t="n">
-        <v>3.274311879527827</v>
+        <v>3.179308240074974</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -743,11 +735,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -755,19 +746,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56.75</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="D6" t="n">
-        <v>56.75</v>
+        <v>57.95000076293945</v>
       </c>
       <c r="E6" t="n">
-        <v>56.70000076293945</v>
+        <v>55.15000152587891</v>
       </c>
       <c r="F6" t="n">
-        <v>56.70000076293945</v>
+        <v>56.5</v>
       </c>
       <c r="G6" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -776,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>56.57687074205896</v>
+        <v>56.39661262618656</v>
       </c>
       <c r="K6" t="n">
-        <v>56.09602227199932</v>
+        <v>56.06777773962173</v>
       </c>
       <c r="L6" t="n">
-        <v>55.0888445580372</v>
+        <v>55.14899995985508</v>
       </c>
       <c r="M6" t="n">
-        <v>54.24582337457462</v>
+        <v>54.30866383115247</v>
       </c>
       <c r="N6" t="n">
-        <v>53.81482882413975</v>
+        <v>53.84688568064227</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -797,31 +788,30 @@
         <v>1</v>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2356.HK</t>
+          <t>1982.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.680000305175781</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="D7" t="n">
-        <v>9.829999923706055</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="E7" t="n">
-        <v>9.640000343322754</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="F7" t="n">
-        <v>9.800000190734863</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="G7" t="n">
-        <v>590840</v>
+        <v>276000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -830,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.857316816180372</v>
+        <v>0.887561229404534</v>
       </c>
       <c r="K7" t="n">
-        <v>9.842548695896232</v>
+        <v>0.8842314581752567</v>
       </c>
       <c r="L7" t="n">
-        <v>9.575836111671888</v>
+        <v>0.8642586807216823</v>
       </c>
       <c r="M7" t="n">
-        <v>9.11179735256091</v>
+        <v>0.8375833142895285</v>
       </c>
       <c r="N7" t="n">
-        <v>8.067970563745579</v>
+        <v>0.7701080988932761</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -851,52 +841,51 @@
         <v>1</v>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2161.HK</t>
+          <t>1766.HK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.029999971389771</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="D8" t="n">
-        <v>3.029999971389771</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="E8" t="n">
-        <v>2.900000095367432</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="G8" t="n">
-        <v>798000</v>
+        <v>14901051</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.119932994</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.02647342785663</v>
+        <v>5.908450241686166</v>
       </c>
       <c r="K8" t="n">
-        <v>3.009323817840575</v>
+        <v>5.904751975074642</v>
       </c>
       <c r="L8" t="n">
-        <v>2.946248359384498</v>
+        <v>5.723989120360375</v>
       </c>
       <c r="M8" t="n">
-        <v>2.744183590446095</v>
+        <v>5.421698799341529</v>
       </c>
       <c r="N8" t="n">
-        <v>2.197074704150139</v>
+        <v>4.95261325231303</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -905,31 +894,30 @@
         <v>1</v>
       </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1982.HK</t>
+          <t>1717.HK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8899999856948853</v>
+        <v>2.529999971389771</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8999999761581421</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8700000047683716</v>
+        <v>2.529999971389771</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8899999856948853</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="G9" t="n">
-        <v>1406000</v>
+        <v>166000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -938,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8882633786842784</v>
+        <v>2.565727976997528</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8834644405546395</v>
+        <v>2.552739944913225</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8614011034802813</v>
+        <v>2.477975282279865</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8345480382438762</v>
+        <v>2.340090127083357</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7672768374135769</v>
+        <v>2.232123318598574</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -959,31 +947,30 @@
         <v>1</v>
       </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1382.HK</t>
+          <t>1199.HK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.5</v>
+        <v>5.519999980926514</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="E10" t="n">
-        <v>1.480000019073486</v>
+        <v>5.489999771118164</v>
       </c>
       <c r="F10" t="n">
-        <v>1.480000019073486</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="G10" t="n">
-        <v>137000</v>
+        <v>3210000</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -992,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.516841978296433</v>
+        <v>5.591010674869245</v>
       </c>
       <c r="K10" t="n">
-        <v>1.506603576672226</v>
+        <v>5.563011876443601</v>
       </c>
       <c r="L10" t="n">
-        <v>1.464397334562149</v>
+        <v>5.450000106681104</v>
       </c>
       <c r="M10" t="n">
-        <v>1.418814390192885</v>
+        <v>5.202374702612064</v>
       </c>
       <c r="N10" t="n">
-        <v>1.401151338598959</v>
+        <v>4.816526295790619</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1013,31 +1000,30 @@
         <v>1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1199.HK</t>
+          <t>1044.HK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.599999904632568</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="D11" t="n">
-        <v>5.659999847412109</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="E11" t="n">
-        <v>5.579999923706055</v>
+        <v>24.42000007629395</v>
       </c>
       <c r="F11" t="n">
-        <v>5.659999847412109</v>
+        <v>24.95999908447266</v>
       </c>
       <c r="G11" t="n">
-        <v>2860000</v>
+        <v>1513728</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1046,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.613229477032012</v>
+        <v>25.05160325545847</v>
       </c>
       <c r="K11" t="n">
-        <v>5.561718968737162</v>
+        <v>24.74825909725432</v>
       </c>
       <c r="L11" t="n">
-        <v>5.434864302116781</v>
+        <v>23.99806830893739</v>
       </c>
       <c r="M11" t="n">
-        <v>5.17968198181906</v>
+        <v>23.07636130444947</v>
       </c>
       <c r="N11" t="n">
-        <v>4.798230548500465</v>
+        <v>22.35962603356529</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1067,31 +1053,30 @@
         <v>1</v>
       </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1052.HK</t>
+          <t>0807.HK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.420000076293945</v>
+        <v>1.139999985694885</v>
       </c>
       <c r="D12" t="n">
-        <v>4.420000076293945</v>
+        <v>1.139999985694885</v>
       </c>
       <c r="E12" t="n">
-        <v>4.389999866485596</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="F12" t="n">
-        <v>4.420000076293945</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="G12" t="n">
-        <v>1510000</v>
+        <v>136000</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1100,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3550525565778</v>
+        <v>1.139864084902689</v>
       </c>
       <c r="K12" t="n">
-        <v>4.272394154132319</v>
+        <v>1.137801907704357</v>
       </c>
       <c r="L12" t="n">
-        <v>4.09949660088775</v>
+        <v>1.114014202958742</v>
       </c>
       <c r="M12" t="n">
-        <v>3.913753810462528</v>
+        <v>1.067547610661865</v>
       </c>
       <c r="N12" t="n">
-        <v>3.728534639265807</v>
+        <v>1.011549521034093</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1121,31 +1106,30 @@
         <v>1</v>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1044.HK</t>
+          <t>0737.HK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.29999923706055</v>
+        <v>1.860000014305115</v>
       </c>
       <c r="D13" t="n">
-        <v>25.29999923706055</v>
+        <v>1.860000014305115</v>
       </c>
       <c r="E13" t="n">
-        <v>24.97999954223633</v>
+        <v>1.840000033378601</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="G13" t="n">
-        <v>699500</v>
+        <v>222560</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1154,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.08491352484212</v>
+        <v>1.8416109432138</v>
       </c>
       <c r="K13" t="n">
-        <v>24.66427979753835</v>
+        <v>1.826713061455331</v>
       </c>
       <c r="L13" t="n">
-        <v>23.86799144216567</v>
+        <v>1.799859512492458</v>
       </c>
       <c r="M13" t="n">
-        <v>22.9562265354702</v>
+        <v>1.765713329726058</v>
       </c>
       <c r="N13" t="n">
-        <v>22.29501335391393</v>
+        <v>1.696023950799173</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -1175,31 +1159,30 @@
         <v>1</v>
       </c>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0874.HK</t>
+          <t>0548.HK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.30999946594238</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="D14" t="n">
-        <v>18.30999946594238</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E14" t="n">
-        <v>18.04999923706055</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F14" t="n">
-        <v>18.1200008392334</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="G14" t="n">
-        <v>598000</v>
+        <v>3752000</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1208,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.39390150079414</v>
+        <v>7.234768940347161</v>
       </c>
       <c r="K14" t="n">
-        <v>18.34145769918405</v>
+        <v>7.207230874974703</v>
       </c>
       <c r="L14" t="n">
-        <v>18.05343268905047</v>
+        <v>7.076792235279774</v>
       </c>
       <c r="M14" t="n">
-        <v>17.68103083579954</v>
+        <v>6.899443480812889</v>
       </c>
       <c r="N14" t="n">
-        <v>17.5640956664184</v>
+        <v>6.704610739643835</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -1229,31 +1212,30 @@
         <v>1</v>
       </c>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0807.HK</t>
+          <t>0489.HK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.139999985694885</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="D15" t="n">
-        <v>1.139999985694885</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="E15" t="n">
-        <v>1.139999985694885</v>
+        <v>8.710000038146973</v>
       </c>
       <c r="F15" t="n">
-        <v>1.139999985694885</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="G15" t="n">
-        <v>379000</v>
+        <v>39039828</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1262,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.140355425511031</v>
+        <v>8.840491176189451</v>
       </c>
       <c r="K15" t="n">
-        <v>1.137211516222028</v>
+        <v>8.470380182065655</v>
       </c>
       <c r="L15" t="n">
-        <v>1.110717968272912</v>
+        <v>7.25237940598286</v>
       </c>
       <c r="M15" t="n">
-        <v>1.063071415786961</v>
+        <v>6.040808369048198</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008430051819083</v>
+        <v>4.697230217576742</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -1283,31 +1265,30 @@
         <v>1</v>
       </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0737.HK</t>
+          <t>0440.HK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.870000004768372</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="D16" t="n">
-        <v>1.870000004768372</v>
+        <v>33.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1.860000014305115</v>
+        <v>32.70000076293945</v>
       </c>
       <c r="F16" t="n">
-        <v>1.860000014305115</v>
+        <v>33.29999923706055</v>
       </c>
       <c r="G16" t="n">
-        <v>22500</v>
+        <v>415688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1316,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.839644048357063</v>
+        <v>33.74402299213287</v>
       </c>
       <c r="K16" t="n">
-        <v>1.821923858934155</v>
+        <v>33.48834995627833</v>
       </c>
       <c r="L16" t="n">
-        <v>1.794625659954483</v>
+        <v>32.18214425654424</v>
       </c>
       <c r="M16" t="n">
-        <v>1.761091127474636</v>
+        <v>30.50973761088354</v>
       </c>
       <c r="N16" t="n">
-        <v>1.692522191798185</v>
+        <v>27.20338675723354</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1337,31 +1318,30 @@
         <v>1</v>
       </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0551.HK</t>
+          <t>0303.HK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.8100004196167</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>12.96000003814697</v>
+        <v>63.20000076293945</v>
       </c>
       <c r="E17" t="n">
-        <v>12.8100004196167</v>
+        <v>61.34999847412109</v>
       </c>
       <c r="F17" t="n">
-        <v>12.89000034332275</v>
+        <v>62.45000076293945</v>
       </c>
       <c r="G17" t="n">
-        <v>1651960</v>
+        <v>572409</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1370,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.05493733265996</v>
+        <v>63.09950093585527</v>
       </c>
       <c r="K17" t="n">
-        <v>13.01841375631446</v>
+        <v>62.65090426840419</v>
       </c>
       <c r="L17" t="n">
-        <v>12.70298204340057</v>
+        <v>60.89263620095502</v>
       </c>
       <c r="M17" t="n">
-        <v>12.380342872017</v>
+        <v>58.05047822119735</v>
       </c>
       <c r="N17" t="n">
-        <v>12.14121170308665</v>
+        <v>53.39983216909365</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -1391,31 +1371,30 @@
         <v>1</v>
       </c>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0548.HK</t>
+          <t>0215.HK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.099999904632568</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="D18" t="n">
-        <v>7.159999847412109</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="E18" t="n">
-        <v>7.070000171661377</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="F18" t="n">
-        <v>7.099999904632568</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="G18" t="n">
-        <v>635912</v>
+        <v>4098700</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1424,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.20631367387927</v>
+        <v>1.107863052985264</v>
       </c>
       <c r="K18" t="n">
-        <v>7.189594389609604</v>
+        <v>1.098743719033678</v>
       </c>
       <c r="L18" t="n">
-        <v>7.077946293377201</v>
+        <v>1.079054393039394</v>
       </c>
       <c r="M18" t="n">
-        <v>6.957718227032993</v>
+        <v>1.04082804651895</v>
       </c>
       <c r="N18" t="n">
-        <v>6.853995498661064</v>
+        <v>0.9793651174001572</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -1445,31 +1424,30 @@
         <v>1</v>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0440.HK</t>
+          <t>0071.HK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33.65999984741211</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="D19" t="n">
-        <v>34.15999984741211</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="E19" t="n">
-        <v>33.65999984741211</v>
+        <v>9.710000038146973</v>
       </c>
       <c r="F19" t="n">
-        <v>34.13999938964844</v>
+        <v>9.75</v>
       </c>
       <c r="G19" t="n">
-        <v>163427</v>
+        <v>97800</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1478,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.90692100288884</v>
+        <v>9.810942206980204</v>
       </c>
       <c r="K19" t="n">
-        <v>33.45686343533115</v>
+        <v>9.789916711197769</v>
       </c>
       <c r="L19" t="n">
-        <v>32.00012100777609</v>
+        <v>9.696878684316486</v>
       </c>
       <c r="M19" t="n">
-        <v>30.31752249897434</v>
+        <v>9.49077362286411</v>
       </c>
       <c r="N19" t="n">
-        <v>27.04744638821187</v>
+        <v>9.193757996141144</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -1499,31 +1477,30 @@
         <v>1</v>
       </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0315.HK</t>
+          <t>0062.HK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.739999771118164</v>
+        <v>10.48999977111816</v>
       </c>
       <c r="D20" t="n">
-        <v>4.75</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="E20" t="n">
-        <v>4.699999809265137</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="F20" t="n">
-        <v>4.699999809265137</v>
+        <v>10.55000019073486</v>
       </c>
       <c r="G20" t="n">
-        <v>294000</v>
+        <v>183200</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1532,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.73608187378107</v>
+        <v>10.49250467069437</v>
       </c>
       <c r="K20" t="n">
-        <v>4.723126566446227</v>
+        <v>10.30183997338186</v>
       </c>
       <c r="L20" t="n">
-        <v>4.669515532571837</v>
+        <v>9.805757154238394</v>
       </c>
       <c r="M20" t="n">
-        <v>4.552855951338161</v>
+        <v>9.264425643396171</v>
       </c>
       <c r="N20" t="n">
-        <v>4.279120454108712</v>
+        <v>8.62287512516286</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -1553,31 +1530,30 @@
         <v>1</v>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0303.HK</t>
+          <t>0053.HK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>64.84999847412109</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>76.09999847412109</v>
       </c>
       <c r="E21" t="n">
-        <v>63.75</v>
+        <v>75.90000152587891</v>
       </c>
       <c r="F21" t="n">
-        <v>64.30000305175781</v>
+        <v>76</v>
       </c>
       <c r="G21" t="n">
-        <v>133800</v>
+        <v>15000</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1586,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>63.3653698874264</v>
+        <v>76.25650227638818</v>
       </c>
       <c r="K21" t="n">
-        <v>62.59364661465533</v>
+        <v>75.66340372035563</v>
       </c>
       <c r="L21" t="n">
-        <v>60.64164471812096</v>
+        <v>73.7996042146506</v>
       </c>
       <c r="M21" t="n">
-        <v>57.75231717052403</v>
+        <v>71.62109936356936</v>
       </c>
       <c r="N21" t="n">
-        <v>53.1695835213547</v>
+        <v>69.47059214977753</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -1607,31 +1583,30 @@
         <v>1</v>
       </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0215.HK</t>
+          <t>0045.HK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.110000014305115</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D22" t="n">
-        <v>1.110000014305115</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="E22" t="n">
-        <v>1.100000023841858</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F22" t="n">
-        <v>1.110000014305115</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="G22" t="n">
-        <v>638000</v>
+        <v>17500</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1640,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.102778761618105</v>
+        <v>5.94347828118939</v>
       </c>
       <c r="K22" t="n">
-        <v>1.094069193175763</v>
+        <v>5.920509203647095</v>
       </c>
       <c r="L22" t="n">
-        <v>1.074666202897619</v>
+        <v>5.855456657351687</v>
       </c>
       <c r="M22" t="n">
-        <v>1.036340278060819</v>
+        <v>5.784873296703458</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9761103172669405</v>
+        <v>5.775729395635596</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -1661,31 +1636,30 @@
         <v>1</v>
       </c>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0088.HK</t>
+          <t>0032.HK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.25</v>
+        <v>8.529999732971191</v>
       </c>
       <c r="D23" t="n">
-        <v>3.25</v>
+        <v>8.529999732971191</v>
       </c>
       <c r="E23" t="n">
-        <v>3.240000009536743</v>
+        <v>8.529999732971191</v>
       </c>
       <c r="F23" t="n">
-        <v>3.240000009536743</v>
+        <v>8.529999732971191</v>
       </c>
       <c r="G23" t="n">
-        <v>191000</v>
+        <v>3000</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1694,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.269452229933593</v>
+        <v>8.503167342438594</v>
       </c>
       <c r="K23" t="n">
-        <v>3.268661234150805</v>
+        <v>8.441721450956605</v>
       </c>
       <c r="L23" t="n">
-        <v>3.239846925400379</v>
+        <v>8.296789745844725</v>
       </c>
       <c r="M23" t="n">
-        <v>3.164354095090975</v>
+        <v>8.051350253185058</v>
       </c>
       <c r="N23" t="n">
-        <v>3.04057170940333</v>
+        <v>7.810944655539785</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -1715,169 +1689,6 @@
         <v>1</v>
       </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0071.HK</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>10.14999961853027</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10.14999961853027</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.05000019073486</v>
-      </c>
-      <c r="F24" t="n">
-        <v>10.05000019073486</v>
-      </c>
-      <c r="G24" t="n">
-        <v>17000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.05645327640594</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10.01570650400733</v>
-      </c>
-      <c r="L24" t="n">
-        <v>9.909340280467818</v>
-      </c>
-      <c r="M24" t="n">
-        <v>9.692264209137786</v>
-      </c>
-      <c r="N24" t="n">
-        <v>9.392869906727057</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0053.HK</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>77.75</v>
-      </c>
-      <c r="D25" t="n">
-        <v>77.75</v>
-      </c>
-      <c r="E25" t="n">
-        <v>76.90000152587891</v>
-      </c>
-      <c r="F25" t="n">
-        <v>77.09999847412109</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4000</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>76.34699392449231</v>
-      </c>
-      <c r="K25" t="n">
-        <v>75.50548113568144</v>
-      </c>
-      <c r="L25" t="n">
-        <v>73.49657840206704</v>
-      </c>
-      <c r="M25" t="n">
-        <v>71.33920357799113</v>
-      </c>
-      <c r="N25" t="n">
-        <v>69.30757215934165</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0032.HK</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>8.550000190734863</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.699999809265137</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8.539999961853027</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8.539999961853027</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8.485206824029023</v>
-      </c>
-      <c r="K26" t="n">
-        <v>8.415335812514323</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8.26752670721126</v>
-      </c>
-      <c r="M26" t="n">
-        <v>8.021969416440717</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7.793561256966716</v>
-      </c>
-      <c r="O26" t="b">
-        <v>1</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/T1_EMA_M.xlsx
+++ b/Data/T1_EMA_M.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,10 +523,15 @@
           <t>Capital Gains</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,19 +539,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.850000381469727</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="D2" t="n">
+        <v>8.890000343322754</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.859999656677246</v>
+      </c>
+      <c r="F2" t="n">
         <v>8.869999885559082</v>
       </c>
-      <c r="E2" t="n">
-        <v>8.819999694824219</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.850000381469727</v>
-      </c>
       <c r="G2" t="n">
-        <v>3906000</v>
+        <v>191500</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.868890722535824</v>
+        <v>8.869092388540052</v>
       </c>
       <c r="K2" t="n">
-        <v>8.800325126872467</v>
+        <v>8.80638380154087</v>
       </c>
       <c r="L2" t="n">
-        <v>8.528939110243561</v>
+        <v>8.542314042608808</v>
       </c>
       <c r="M2" t="n">
-        <v>8.066731536359621</v>
+        <v>8.082637840270444</v>
       </c>
       <c r="N2" t="n">
-        <v>7.191482597767822</v>
+        <v>7.204857236710533</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -576,30 +581,31 @@
         <v>1</v>
       </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6638.HK</t>
+          <t>9638.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.929999947547913</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="D3" t="n">
-        <v>1.940000057220459</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="E3" t="n">
-        <v>1.929999947547913</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="F3" t="n">
-        <v>1.940000057220459</v>
+        <v>24.84000015258789</v>
       </c>
       <c r="G3" t="n">
-        <v>25500</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -608,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.92463869072912</v>
+        <v>24.88253306694459</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91624382280379</v>
+        <v>24.8154549829332</v>
       </c>
       <c r="L3" t="n">
-        <v>1.906912730380787</v>
+        <v>24.57141628629429</v>
       </c>
       <c r="M3" t="n">
-        <v>1.822402249712002</v>
+        <v>24.11015397567573</v>
       </c>
       <c r="N3" t="n">
-        <v>1.517045713544859</v>
+        <v>23.75622082803526</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -629,30 +635,31 @@
         <v>1</v>
       </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3983.HK</t>
+          <t>6638.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.329999923706055</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="D4" t="n">
-        <v>2.339999914169312</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="E4" t="n">
-        <v>2.309999942779541</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="F4" t="n">
-        <v>2.319999933242798</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="G4" t="n">
-        <v>2606000</v>
+        <v>79000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -661,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.384989098922832</v>
+        <v>1.927431666454818</v>
       </c>
       <c r="K4" t="n">
-        <v>2.377825930488091</v>
+        <v>1.918309582318283</v>
       </c>
       <c r="L4" t="n">
-        <v>2.300015230564516</v>
+        <v>1.908210272609794</v>
       </c>
       <c r="M4" t="n">
-        <v>2.186979538497154</v>
+        <v>1.824730919167614</v>
       </c>
       <c r="N4" t="n">
-        <v>2.046022513962216</v>
+        <v>1.520415867677732</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -682,30 +689,31 @@
         <v>1</v>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3969.HK</t>
+          <t>3983.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.450000047683716</v>
+        <v>2.349999904632568</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="E5" t="n">
-        <v>3.420000076293945</v>
+        <v>2.349999904632568</v>
       </c>
       <c r="F5" t="n">
-        <v>3.470000028610229</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="G5" t="n">
-        <v>3732000</v>
+        <v>96000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -714,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.483229263461838</v>
+        <v>2.38226378740215</v>
       </c>
       <c r="K5" t="n">
-        <v>3.467119820551483</v>
+        <v>2.37714540484209</v>
       </c>
       <c r="L5" t="n">
-        <v>3.43234870840088</v>
+        <v>2.302759726838812</v>
       </c>
       <c r="M5" t="n">
-        <v>3.350752305971532</v>
+        <v>2.190603703785534</v>
       </c>
       <c r="N5" t="n">
-        <v>3.179308240074974</v>
+        <v>2.04860400696465</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -735,30 +743,31 @@
         <v>1</v>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2518.HK</t>
+          <t>3969.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56.79999923706055</v>
+        <v>3.490000009536743</v>
       </c>
       <c r="D6" t="n">
-        <v>57.95000076293945</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>55.15000152587891</v>
+        <v>3.460000038146973</v>
       </c>
       <c r="F6" t="n">
-        <v>56.5</v>
+        <v>3.470000028610229</v>
       </c>
       <c r="G6" t="n">
-        <v>14000</v>
+        <v>681000</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -767,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>56.39661262618656</v>
+        <v>3.480824211631249</v>
       </c>
       <c r="K6" t="n">
-        <v>56.06777773962173</v>
+        <v>3.467773848447674</v>
       </c>
       <c r="L6" t="n">
-        <v>55.14899995985508</v>
+        <v>3.445884555567925</v>
       </c>
       <c r="M6" t="n">
-        <v>54.30866383115247</v>
+        <v>3.398846349265509</v>
       </c>
       <c r="N6" t="n">
-        <v>53.84688568064227</v>
+        <v>3.281172435619771</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -788,10 +797,11 @@
         <v>1</v>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -802,16 +812,16 @@
         <v>0.8799999952316284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="E7" t="n">
         <v>0.8799999952316284</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="G7" t="n">
-        <v>276000</v>
+        <v>328000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -820,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.887561229404534</v>
+        <v>0.8861864595549147</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8842314581752567</v>
+        <v>0.8838635048758109</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8642586807216823</v>
+        <v>0.8648759871720864</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8375833142895285</v>
+        <v>0.8384232484883962</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7701080988932761</v>
+        <v>0.7709837306841435</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -841,10 +851,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -852,40 +863,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.820000171661377</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D8" t="n">
-        <v>5.909999847412109</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E8" t="n">
-        <v>5.78000020980835</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>5.820000171661377</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="G8" t="n">
-        <v>14901051</v>
+        <v>17095000</v>
       </c>
       <c r="H8" t="n">
-        <v>0.119932994</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.908450241686166</v>
+        <v>5.930769685846506</v>
       </c>
       <c r="K8" t="n">
-        <v>5.904751975074642</v>
+        <v>5.910360390604493</v>
       </c>
       <c r="L8" t="n">
-        <v>5.723989120360375</v>
+        <v>5.728173298573147</v>
       </c>
       <c r="M8" t="n">
-        <v>5.421698799341529</v>
+        <v>5.425291729056904</v>
       </c>
       <c r="N8" t="n">
-        <v>4.95261325231303</v>
+        <v>4.952866051054059</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -894,10 +905,11 @@
         <v>1</v>
       </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -905,19 +917,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.529999971389771</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="D9" t="n">
-        <v>2.559999942779541</v>
+        <v>2.619999885559082</v>
       </c>
       <c r="E9" t="n">
-        <v>2.529999971389771</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="F9" t="n">
-        <v>2.559999942779541</v>
+        <v>2.599999904632568</v>
       </c>
       <c r="G9" t="n">
-        <v>166000</v>
+        <v>116000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -926,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.565727976997528</v>
+        <v>2.571959236567535</v>
       </c>
       <c r="K9" t="n">
-        <v>2.552739944913225</v>
+        <v>2.55684950662795</v>
       </c>
       <c r="L9" t="n">
-        <v>2.477975282279865</v>
+        <v>2.482760561587697</v>
       </c>
       <c r="M9" t="n">
-        <v>2.340090127083357</v>
+        <v>2.345236855309544</v>
       </c>
       <c r="N9" t="n">
-        <v>2.232123318598574</v>
+        <v>2.235054605157197</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -947,10 +959,11 @@
         <v>1</v>
       </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -958,19 +971,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.519999980926514</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="D10" t="n">
-        <v>5.590000152587891</v>
+        <v>5.639999866485596</v>
       </c>
       <c r="E10" t="n">
-        <v>5.489999771118164</v>
+        <v>5.559999942779541</v>
       </c>
       <c r="F10" t="n">
-        <v>5.559999942779541</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="G10" t="n">
-        <v>3210000</v>
+        <v>770005</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -979,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.591010674869245</v>
+        <v>5.589008720112301</v>
       </c>
       <c r="K10" t="n">
-        <v>5.563011876443601</v>
+        <v>5.564489097945123</v>
       </c>
       <c r="L10" t="n">
-        <v>5.450000106681104</v>
+        <v>5.455098139174844</v>
       </c>
       <c r="M10" t="n">
-        <v>5.202374702612064</v>
+        <v>5.209852435892341</v>
       </c>
       <c r="N10" t="n">
-        <v>4.816526295790619</v>
+        <v>4.822609771971387</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1000,10 +1013,11 @@
         <v>1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1014,16 +1028,16 @@
         <v>25.21999931335449</v>
       </c>
       <c r="D11" t="n">
-        <v>25.21999931335449</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="E11" t="n">
-        <v>24.42000007629395</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95999908447266</v>
+        <v>25.47999954223633</v>
       </c>
       <c r="G11" t="n">
-        <v>1513728</v>
+        <v>240500</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1032,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25.05160325545847</v>
+        <v>25.12949348941808</v>
       </c>
       <c r="K11" t="n">
-        <v>24.74825909725432</v>
+        <v>24.8118887011658</v>
       </c>
       <c r="L11" t="n">
-        <v>23.99806830893739</v>
+        <v>24.05618325925657</v>
       </c>
       <c r="M11" t="n">
-        <v>23.07636130444947</v>
+        <v>23.12395810003327</v>
       </c>
       <c r="N11" t="n">
-        <v>22.35962603356529</v>
+        <v>22.384489556658</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1053,10 +1067,11 @@
         <v>1</v>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1064,19 +1079,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.139999985694885</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="D12" t="n">
         <v>1.139999985694885</v>
       </c>
       <c r="E12" t="n">
-        <v>1.129999995231628</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="F12" t="n">
-        <v>1.129999995231628</v>
+        <v>1.139999985694885</v>
       </c>
       <c r="G12" t="n">
-        <v>136000</v>
+        <v>310000</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1085,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.139864084902689</v>
+        <v>1.139888794137633</v>
       </c>
       <c r="K12" t="n">
-        <v>1.137801907704357</v>
+        <v>1.137993044920925</v>
       </c>
       <c r="L12" t="n">
-        <v>1.114014202958742</v>
+        <v>1.115033253262109</v>
       </c>
       <c r="M12" t="n">
-        <v>1.067547610661865</v>
+        <v>1.068982311145715</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011549521034093</v>
+        <v>1.012573029590194</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1106,30 +1121,31 @@
         <v>1</v>
       </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0737.HK</t>
+          <t>0775.HK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.860000014305115</v>
+        <v>0.9399999976158142</v>
       </c>
       <c r="D13" t="n">
-        <v>1.860000014305115</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="E13" t="n">
-        <v>1.840000033378601</v>
+        <v>0.9399999976158142</v>
       </c>
       <c r="F13" t="n">
-        <v>1.850000023841858</v>
+        <v>0.9700000286102295</v>
       </c>
       <c r="G13" t="n">
-        <v>222560</v>
+        <v>5210000</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1138,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8416109432138</v>
+        <v>0.9329235566070491</v>
       </c>
       <c r="K13" t="n">
-        <v>1.826713061455331</v>
+        <v>0.9312443753394039</v>
       </c>
       <c r="L13" t="n">
-        <v>1.799859512492458</v>
+        <v>0.9242477032789026</v>
       </c>
       <c r="M13" t="n">
-        <v>1.765713329726058</v>
+        <v>0.875476258645716</v>
       </c>
       <c r="N13" t="n">
-        <v>1.696023950799173</v>
+        <v>0.7356322221657383</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -1159,30 +1175,31 @@
         <v>1</v>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0548.HK</t>
+          <t>0737.HK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.260000228881836</v>
+        <v>1.840000033378601</v>
       </c>
       <c r="D14" t="n">
-        <v>7.320000171661377</v>
+        <v>1.870000004768372</v>
       </c>
       <c r="E14" t="n">
-        <v>7.230000019073486</v>
+        <v>1.840000033378601</v>
       </c>
       <c r="F14" t="n">
-        <v>7.300000190734863</v>
+        <v>1.850000023841858</v>
       </c>
       <c r="G14" t="n">
-        <v>3752000</v>
+        <v>40000</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1191,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.234768940347161</v>
+        <v>1.84313623060072</v>
       </c>
       <c r="K14" t="n">
-        <v>7.207230874974703</v>
+        <v>1.828738014706334</v>
       </c>
       <c r="L14" t="n">
-        <v>7.076792235279774</v>
+        <v>1.80182580705568</v>
       </c>
       <c r="M14" t="n">
-        <v>6.899443480812889</v>
+        <v>1.767382373167688</v>
       </c>
       <c r="N14" t="n">
-        <v>6.704610739643835</v>
+        <v>1.697250852112192</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -1212,30 +1229,31 @@
         <v>1</v>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0489.HK</t>
+          <t>0551.HK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8.729999542236328</v>
+        <v>13.06999969482422</v>
       </c>
       <c r="D15" t="n">
-        <v>9.069999694824219</v>
+        <v>13.22000026702881</v>
       </c>
       <c r="E15" t="n">
-        <v>8.710000038146973</v>
+        <v>13.02999973297119</v>
       </c>
       <c r="F15" t="n">
-        <v>8.939999580383301</v>
+        <v>13.19999980926514</v>
       </c>
       <c r="G15" t="n">
-        <v>39039828</v>
+        <v>691500</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1244,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.840491176189451</v>
+        <v>13.00798199709666</v>
       </c>
       <c r="K15" t="n">
-        <v>8.470380182065655</v>
+        <v>12.99731516929091</v>
       </c>
       <c r="L15" t="n">
-        <v>7.25237940598286</v>
+        <v>12.73800215549052</v>
       </c>
       <c r="M15" t="n">
-        <v>6.040808369048198</v>
+        <v>12.42307589942583</v>
       </c>
       <c r="N15" t="n">
-        <v>4.697230217576742</v>
+        <v>12.16617795474624</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -1265,30 +1283,31 @@
         <v>1</v>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0440.HK</t>
+          <t>0548.HK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33.29999923706055</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="E16" t="n">
-        <v>32.70000076293945</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F16" t="n">
-        <v>33.29999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="G16" t="n">
-        <v>415688</v>
+        <v>98000</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1297,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.74402299213287</v>
+        <v>7.262992745099603</v>
       </c>
       <c r="K16" t="n">
-        <v>33.48834995627833</v>
+        <v>7.22312383075826</v>
       </c>
       <c r="L16" t="n">
-        <v>32.18214425654424</v>
+        <v>7.089074887483924</v>
       </c>
       <c r="M16" t="n">
-        <v>30.50973761088354</v>
+        <v>6.909157468647096</v>
       </c>
       <c r="N16" t="n">
-        <v>27.20338675723354</v>
+        <v>6.710072007076989</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1318,30 +1337,31 @@
         <v>1</v>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0303.HK</t>
+          <t>0489.HK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>63</v>
+        <v>8.890000343322754</v>
       </c>
       <c r="D17" t="n">
-        <v>63.20000076293945</v>
+        <v>8.989999771118164</v>
       </c>
       <c r="E17" t="n">
-        <v>61.34999847412109</v>
+        <v>8.890000343322754</v>
       </c>
       <c r="F17" t="n">
-        <v>62.45000076293945</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="G17" t="n">
-        <v>572409</v>
+        <v>5572000</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1350,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>63.09950093585527</v>
+        <v>8.865856333652518</v>
       </c>
       <c r="K17" t="n">
-        <v>62.65090426840419</v>
+        <v>8.514694909037019</v>
       </c>
       <c r="L17" t="n">
-        <v>60.89263620095502</v>
+        <v>7.320129215247702</v>
       </c>
       <c r="M17" t="n">
-        <v>58.05047822119735</v>
+        <v>6.099010174457745</v>
       </c>
       <c r="N17" t="n">
-        <v>53.39983216909365</v>
+        <v>4.731355869410807</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -1371,30 +1391,31 @@
         <v>1</v>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0215.HK</t>
+          <t>0440.HK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.110000014305115</v>
+        <v>33.5</v>
       </c>
       <c r="D18" t="n">
-        <v>1.120000004768372</v>
+        <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>1.100000023841858</v>
+        <v>33.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1.120000004768372</v>
+        <v>33.84000015258789</v>
       </c>
       <c r="G18" t="n">
-        <v>4098700</v>
+        <v>65080</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1403,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.107863052985264</v>
+        <v>33.76147338494287</v>
       </c>
       <c r="K18" t="n">
-        <v>1.098743719033678</v>
+        <v>33.51892823429706</v>
       </c>
       <c r="L18" t="n">
-        <v>1.079054393039394</v>
+        <v>32.24715821805457</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04082804651895</v>
+        <v>30.57568342350126</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9793651174001572</v>
+        <v>27.25626818631204</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -1424,30 +1445,31 @@
         <v>1</v>
       </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0071.HK</t>
+          <t>0303.HK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.710000038146973</v>
+        <v>62.40000152587891</v>
       </c>
       <c r="D19" t="n">
-        <v>9.899999618530273</v>
+        <v>63.34999847412109</v>
       </c>
       <c r="E19" t="n">
-        <v>9.710000038146973</v>
+        <v>62.40000152587891</v>
       </c>
       <c r="F19" t="n">
-        <v>9.75</v>
+        <v>62.90000152587891</v>
       </c>
       <c r="G19" t="n">
-        <v>97800</v>
+        <v>40100</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1456,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9.810942206980204</v>
+        <v>63.06331053720586</v>
       </c>
       <c r="K19" t="n">
-        <v>9.789916711197769</v>
+        <v>62.69962565539609</v>
       </c>
       <c r="L19" t="n">
-        <v>9.696878684316486</v>
+        <v>61.36375934477762</v>
       </c>
       <c r="M19" t="n">
-        <v>9.49077362286411</v>
+        <v>59.25580577168748</v>
       </c>
       <c r="N19" t="n">
-        <v>9.193757996141144</v>
+        <v>55.48203229427221</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -1477,30 +1499,31 @@
         <v>1</v>
       </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0062.HK</t>
+          <t>0215.HK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10.48999977111816</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="D20" t="n">
-        <v>10.55000019073486</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="E20" t="n">
-        <v>10.42000007629395</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="F20" t="n">
-        <v>10.55000019073486</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="G20" t="n">
-        <v>183200</v>
+        <v>187000</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1509,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.49250467069437</v>
+        <v>1.108251591407055</v>
       </c>
       <c r="K20" t="n">
-        <v>10.30183997338186</v>
+        <v>1.099722527318151</v>
       </c>
       <c r="L20" t="n">
-        <v>9.805757154238394</v>
+        <v>1.080267946814308</v>
       </c>
       <c r="M20" t="n">
-        <v>9.264425643396171</v>
+        <v>1.042197788408691</v>
       </c>
       <c r="N20" t="n">
-        <v>8.62287512516286</v>
+        <v>0.980406032051269</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -1530,30 +1553,31 @@
         <v>1</v>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0053.HK</t>
+          <t>0071.HK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>76.09999847412109</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="D21" t="n">
-        <v>76.09999847412109</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="E21" t="n">
-        <v>75.90000152587891</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="F21" t="n">
-        <v>76</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="G21" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1562,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.25650227638818</v>
+        <v>9.818043693251026</v>
       </c>
       <c r="K21" t="n">
-        <v>75.66340372035563</v>
+        <v>9.79514137817794</v>
       </c>
       <c r="L21" t="n">
-        <v>73.7996042146506</v>
+        <v>9.702883456750428</v>
       </c>
       <c r="M21" t="n">
-        <v>71.62109936356936</v>
+        <v>9.497887023612622</v>
       </c>
       <c r="N21" t="n">
-        <v>69.47059214977753</v>
+        <v>9.19898701003979</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -1583,30 +1607,31 @@
         <v>1</v>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0045.HK</t>
+          <t>0062.HK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.849999904632568</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="D22" t="n">
-        <v>5.900000095367432</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="E22" t="n">
-        <v>5.849999904632568</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="F22" t="n">
-        <v>5.900000095367432</v>
+        <v>10.59000015258789</v>
       </c>
       <c r="G22" t="n">
-        <v>17500</v>
+        <v>46800</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1615,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.94347828118939</v>
+        <v>10.51023112194774</v>
       </c>
       <c r="K22" t="n">
-        <v>5.920509203647095</v>
+        <v>10.32689738026934</v>
       </c>
       <c r="L22" t="n">
-        <v>5.855456657351687</v>
+        <v>9.836511781624649</v>
       </c>
       <c r="M22" t="n">
-        <v>5.784873296703458</v>
+        <v>9.290674643580592</v>
       </c>
       <c r="N22" t="n">
-        <v>5.775729395635596</v>
+        <v>8.638549430115495</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -1636,59 +1661,169 @@
         <v>1</v>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>0053.HK</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>75</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75.09999847412109</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>76.04622885779416</v>
+      </c>
+      <c r="K23" t="n">
+        <v>75.61441195981294</v>
+      </c>
+      <c r="L23" t="n">
+        <v>73.85060006641693</v>
+      </c>
+      <c r="M23" t="n">
+        <v>71.68998843020941</v>
+      </c>
+      <c r="N23" t="n">
+        <v>69.51544788779897</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0045.HK</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5.829999923706055</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.880000114440918</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.820000171661377</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.860000133514404</v>
+      </c>
+      <c r="G24" t="n">
+        <v>43500</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.928300436157574</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.915247545374688</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5.85563483288748</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.786360956838329</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.776400875619708</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>0032.HK</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>8.529999732971191</v>
       </c>
-      <c r="D23" t="n">
-        <v>8.529999732971191</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8.529999732971191</v>
-      </c>
-      <c r="F23" t="n">
-        <v>8.529999732971191</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8.503167342438594</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8.441721450956605</v>
-      </c>
-      <c r="L23" t="n">
-        <v>8.296789745844725</v>
-      </c>
-      <c r="M23" t="n">
-        <v>8.051350253185058</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7.810944655539785</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>8.630000114440918</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.670000076293945</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.528621950315459</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.453895393854216</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.302279955268876</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8.054122534697399</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.812060185261574</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
